--- a/Plantilla Recepcion.xlsx
+++ b/Plantilla Recepcion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zona de Trabajo\Visual C#\SICAOracle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zona de Trabajo\SICA\SICA_UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F974C9FF-944D-4760-BC75-3521ABD743B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE162A-A749-423A-A121-5CB5A1B95B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35040" yWindow="645" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>EXPEDIENTES DE CREDITO</t>
   </si>
   <si>
-    <t>NUMERO DE CAJA IRON MOUNTAIN</t>
-  </si>
-  <si>
     <t>CODIGO DEPARTAMENTO</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>DESCRIPCION 5</t>
+  </si>
+  <si>
+    <t>NUMERO DE CAJA</t>
   </si>
 </sst>
 </file>
@@ -491,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -512,40 +510,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -564,20 +562,20 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -593,25 +591,27 @@
       <c r="D3" s="4">
         <v>44048</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>44048</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -630,20 +630,20 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -662,20 +662,20 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -694,20 +694,20 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
